--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7905"/>
+    <workbookView windowWidth="20385" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>Date Given</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Concept of Recycle bin why it is too fast to delete a file</t>
   </si>
   <si>
-    <t>The header  is changed to deleted and memort exist as same</t>
+    <t>The header  is changed to deleted and memory exist as same</t>
   </si>
   <si>
     <t>Create 5GB file and copy it 3 times, but take size only 1 time</t>
@@ -80,12 +80,18 @@
     <t>(First,step,end) values</t>
   </si>
   <si>
+    <t>use python code using os module</t>
+  </si>
+  <si>
     <t>Check at which location of RAM a variable takes memory and how much</t>
   </si>
   <si>
     <t>Python</t>
   </si>
   <si>
+    <t>it can be verified using Task manager in Windows and system monitor in linux</t>
+  </si>
+  <si>
     <t>Create 500 variables and check its memory with comparison to null and a value</t>
   </si>
   <si>
@@ -113,10 +119,13 @@
     <t>https://wiki.videolan.org/Documentation:Installing_VLC/</t>
   </si>
   <si>
+    <t>using pywinauto module, graphically install vlc</t>
+  </si>
+  <si>
     <t>Find use cases of tuple in real life</t>
   </si>
   <si>
-    <t>Tuples are used for grouping data, Tuple assignment, Act as a return value, Composability of Data Structures</t>
+    <t>Tuples are used for grouping data, Tuple assignment, Act as a return value, Composability of Data Structures,store location coordinates of some region</t>
   </si>
   <si>
     <t>http://openbookproject.net/thinkcs/python/english3e/tuples.html</t>
@@ -134,6 +143,9 @@
     <t>No of lines word characters count in python</t>
   </si>
   <si>
+    <t>file handling in python using .readlines function</t>
+  </si>
+  <si>
     <t>Count no of lines word character without saving data in a file</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
     <t>AWS</t>
   </si>
   <si>
+    <t>pending</t>
+  </si>
+  <si>
     <t>Write code in python to connect to SSH without putty</t>
   </si>
   <si>
@@ -155,10 +170,31 @@
     <t>List how many people are in a group find that list</t>
   </si>
   <si>
+    <t>there is a file /etc/groups holding this information</t>
+  </si>
+  <si>
     <t>How to add multiple users in a group at once</t>
   </si>
   <si>
     <t>You can use programming language to do this.</t>
+  </si>
+  <si>
+    <t>create a file that contains number of email ids</t>
+  </si>
+  <si>
+    <t>send a common email message to all emails</t>
+  </si>
+  <si>
+    <t>verify the email address as well</t>
+  </si>
+  <si>
+    <t>find number of devices connected from your hotspot using python</t>
+  </si>
+  <si>
+    <t>WAP to list numer of users present in linux based OS</t>
+  </si>
+  <si>
+    <t>take 10 commands randomly from a user and check if it is present then run it other wise give voice based error message</t>
   </si>
   <si>
     <t>Questions</t>
@@ -171,11 +207,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -209,6 +246,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -230,6 +297,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -244,99 +374,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,39 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,17 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -620,6 +613,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,153 +655,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -801,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,13 +1160,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.8571428571429" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.1428571428571" style="2" customWidth="1"/>
@@ -1221,7 +1258,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>43530</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1256,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>43530</v>
       </c>
@@ -1278,8 +1315,11 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>43530</v>
       </c>
@@ -1287,13 +1327,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1304,10 +1347,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1321,16 +1364,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1341,19 +1384,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>43561</v>
       </c>
@@ -1361,19 +1404,22 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1384,19 +1430,19 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1407,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1424,16 +1470,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>43591</v>
       </c>
@@ -1441,13 +1487,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1458,10 +1507,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1475,10 +1524,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1492,13 +1541,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1509,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1526,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -1535,7 +1584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>43652</v>
       </c>
@@ -1543,13 +1592,16 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1560,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
@@ -1569,21 +1621,114 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4">
-        <v>43652</v>
+        <v>43683</v>
       </c>
       <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4">
+        <v>43683</v>
       </c>
     </row>
   </sheetData>
@@ -1609,10 +1754,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7935"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>Date Given</t>
   </si>
@@ -152,6 +152,9 @@
     <t>Search hello and then save top 5 URL in a list and then open top 5 url or all the search terms and then again save in a list and finally print that now</t>
   </si>
   <si>
+    <t>using from googlesearch import search</t>
+  </si>
+  <si>
     <t>Connect RedHat with GUI</t>
   </si>
   <si>
@@ -179,13 +182,7 @@
     <t>You can use programming language to do this.</t>
   </si>
   <si>
-    <t>create a file that contains number of email ids</t>
-  </si>
-  <si>
-    <t>send a common email message to all emails</t>
-  </si>
-  <si>
-    <t>verify the email address as well</t>
+    <t>create a file that contains number of email ids,send a common email message to all emails and verify the email address as well</t>
   </si>
   <si>
     <t>find number of devices connected from your hotspot using python</t>
@@ -195,6 +192,27 @@
   </si>
   <si>
     <t>take 10 commands randomly from a user and check if it is present then run it other wise give voice based error message</t>
+  </si>
+  <si>
+    <t>make  tree directory architecture and provide different permissions</t>
+  </si>
+  <si>
+    <t>using mkdir A/B/D/I/L/H  A/B/E/H/K/M  A/C/F/H/K/M  A/C/G/J/K/M</t>
+  </si>
+  <si>
+    <t>Make 3 size of hard-disk using python</t>
+  </si>
+  <si>
+    <t>Read about Web-Server</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Go to slashreboot.blogspot.com and solve the tasksgiven</t>
+  </si>
+  <si>
+    <t>4 tasks completed</t>
   </si>
   <si>
     <t>Questions</t>
@@ -208,11 +226,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,19 +250,134 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -259,121 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -384,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,21 +601,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,15 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -658,11 +652,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,148 +698,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -838,7 +856,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1516,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>43591</v>
       </c>
@@ -1530,7 +1548,10 @@
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1541,13 +1562,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1558,10 +1579,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1575,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -1592,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
@@ -1601,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1612,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
@@ -1621,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1632,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1649,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>23</v>
@@ -1666,13 +1687,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1683,16 +1704,16 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4">
         <v>43683</v>
       </c>
@@ -1700,35 +1721,70 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4">
-        <v>43683</v>
+        <v>43714</v>
       </c>
       <c r="B29" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="4">
-        <v>43683</v>
+        <v>43714</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>43714</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1754,10 +1810,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>Date Given</t>
   </si>
@@ -179,7 +179,7 @@
     <t>How to add multiple users in a group at once</t>
   </si>
   <si>
-    <t>You can use programming language to do this.</t>
+    <t>Use os module , save the usernames in a list and loop over it with useradd function</t>
   </si>
   <si>
     <t>create a file that contains number of email ids,send a common email message to all emails and verify the email address as well</t>
@@ -188,7 +188,10 @@
     <t>find number of devices connected from your hotspot using python</t>
   </si>
   <si>
-    <t>WAP to list numer of users present in linux based OS</t>
+    <t>WAP to list number of users present in linux based OS</t>
+  </si>
+  <si>
+    <t>used python to count no of directories in /home as each user must have his own directory</t>
   </si>
   <si>
     <t>take 10 commands randomly from a user and check if it is present then run it other wise give voice based error message</t>
@@ -227,10 +230,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -250,7 +253,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,15 +373,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,114 +395,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -402,25 +405,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,25 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,127 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,8 +602,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,34 +682,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,148 +701,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1639,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
@@ -1679,7 +1682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="4">
         <v>43683</v>
       </c>
@@ -1693,7 +1696,10 @@
         <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1704,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
@@ -1721,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
@@ -1730,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1741,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>23</v>
@@ -1758,10 +1764,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
@@ -1775,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>23</v>
@@ -1784,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1810,10 +1816,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>Date Given</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>4 tasks completed</t>
+  </si>
+  <si>
+    <t>Make a camera working to connect with other OS</t>
+  </si>
+  <si>
+    <t>2 tasks completed</t>
   </si>
   <si>
     <t>Questions</t>
@@ -231,9 +237,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -252,13 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -274,13 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +290,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -320,14 +319,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -360,7 +351,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,13 +394,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -411,181 +417,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,58 +707,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -761,88 +767,88 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,10 +1187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1791,6 +1797,43 @@
       </c>
       <c r="F31" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>43775</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>43775</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1859,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
